--- a/biology/Zoologie/Engoulevent_à_faucilles/Engoulevent_à_faucilles.xlsx
+++ b/biology/Zoologie/Engoulevent_à_faucilles/Engoulevent_à_faucilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_faucilles</t>
+          <t>Engoulevent_à_faucilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleothreptus anomalus
 L'Engoulevent à faucilles (Eleothreptus anomalus) est une espèce d'oiseaux de la famille des Caprimulgidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_faucilles</t>
+          <t>Engoulevent_à_faucilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Argentine, au Brésil, au Paraguay et en Uruguay.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Engoulevent_%C3%A0_faucilles</t>
+          <t>Engoulevent_à_faucilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce  Eleothreptus anomalus a été décrite par le naturaliste John Gould en 1838 sous le nom initial de Amblypterus anomalus[1].
-Synonymie
-Amblypterus anomalus Gould, 1838 (protonyme)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce  Eleothreptus anomalus a été décrite par le naturaliste John Gould en 1838 sous le nom initial de Amblypterus anomalus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Engoulevent_à_faucilles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Engoulevent_%C3%A0_faucilles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amblypterus anomalus Gould, 1838 (protonyme)
 Hydropsalis anomala Gould, 1838</t>
         </is>
       </c>
